--- a/BACKLOG PROJETO INDIVIDUAL.xlsx
+++ b/BACKLOG PROJETO INDIVIDUAL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6718dc6c59bca538/Documentos/Projetos PI/Pequenos Netherland/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="113" documentId="13_ncr:1_{2DF89E18-3D0C-4016-8198-AB1920DFF2DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE74D21E-3D47-426B-9429-CC7C6F843F13}"/>
+  <xr:revisionPtr revIDLastSave="456" documentId="13_ncr:1_{2DF89E18-3D0C-4016-8198-AB1920DFF2DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D07268CE-525D-436B-A8B6-B3BB2E17B774}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{BB669365-8FD1-43E2-B311-9ACD144396A7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="118">
   <si>
     <t>REQUISITOS</t>
   </si>
@@ -78,9 +78,6 @@
   </si>
   <si>
     <t>SPRINT 05</t>
-  </si>
-  <si>
-    <t>SPRINT 06</t>
   </si>
   <si>
     <t>MÉDIA</t>
@@ -147,9 +144,6 @@
     <t xml:space="preserve">Uma tela de abertura para quando o usuario acessar o site </t>
   </si>
   <si>
-    <t>Tela Curiosidades</t>
-  </si>
-  <si>
     <t>DESEJAVEL</t>
   </si>
   <si>
@@ -436,10 +430,10 @@
     <t xml:space="preserve">Dashboard usando Chart.JS </t>
   </si>
   <si>
-    <t>SPRINT 07</t>
-  </si>
-  <si>
     <t>Pagina Sobre os Mini Coelhos</t>
+  </si>
+  <si>
+    <t>Tela CurioSPRINT 02sidades</t>
   </si>
 </sst>
 </file>
@@ -814,7 +808,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -923,76 +917,22 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1009,6 +949,63 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1056,12 +1053,37 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR" sz="2400"/>
+              <a:t>Burdown</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout>
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.36504155730533683"/>
-          <c:y val="6.4814814814814811E-2"/>
+          <c:x val="0.41297062709701915"/>
+          <c:y val="2.4000057723884118E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1128,9 +1150,16 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Planilha1!$W$6:$W$13</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Planilha1!$W$6:$W$13</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Planilha1!$W$6:$W$11</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>TOTAL</c:v>
                 </c:pt>
@@ -1149,43 +1178,38 @@
                 <c:pt idx="5">
                   <c:v>SPRINT 05</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>SPRINT 06</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>SPRINT 07</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Planilha1!$X$6:$X$13</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Planilha1!$X$6:$X$13</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Planilha1!$X$6:$X$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>271</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>77</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>58</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>37</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1918,15 +1942,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>486454</xdr:colOff>
+      <xdr:colOff>370609</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
+      <xdr:rowOff>8881</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>22677</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>11340</xdr:rowOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>511798</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>410361</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2277,8 +2301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0A4729E-3F66-4FBE-B00E-8133F9F452C5}">
   <dimension ref="B4:X64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N7" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="S7" sqref="S7"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="41" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AA23" sqref="AA23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2295,50 +2319,50 @@
   <sheetData>
     <row r="4" spans="2:24" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="52"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="51"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="59"/>
       <c r="J5" s="7"/>
       <c r="K5" s="3"/>
-      <c r="M5" s="40" t="s">
-        <v>108</v>
-      </c>
-      <c r="N5" s="40"/>
-      <c r="O5" s="40"/>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="40"/>
-      <c r="R5" s="40"/>
-      <c r="S5" s="40"/>
-      <c r="T5" s="40"/>
-      <c r="W5" s="40" t="s">
-        <v>100</v>
-      </c>
-      <c r="X5" s="58"/>
+      <c r="M5" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="N5" s="38"/>
+      <c r="O5" s="38"/>
+      <c r="P5" s="38"/>
+      <c r="Q5" s="38"/>
+      <c r="R5" s="38"/>
+      <c r="S5" s="38"/>
+      <c r="T5" s="38"/>
+      <c r="W5" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="X5" s="39"/>
     </row>
     <row r="6" spans="2:24" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="54" t="s">
+      <c r="B6" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="55"/>
-      <c r="D6" s="43" t="s">
+      <c r="C6" s="63"/>
+      <c r="D6" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="53"/>
+      <c r="F6" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="55"/>
+      <c r="H6" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="44"/>
-      <c r="F6" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="46"/>
-      <c r="H6" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" s="48"/>
+      <c r="I6" s="57"/>
       <c r="J6" s="6"/>
       <c r="K6" s="2"/>
       <c r="M6" s="1" t="s">
@@ -2354,7 +2378,7 @@
         <v>3</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="R6" s="1" t="s">
         <v>4</v>
@@ -2383,16 +2407,16 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="M7" s="15" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="N7" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="O7" s="34" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P7" s="34" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q7" s="34">
         <v>3</v>
@@ -2408,7 +2432,7 @@
         <v>9</v>
       </c>
       <c r="X7" s="36">
-        <v>77</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="2:24" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2423,19 +2447,19 @@
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="M8" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="N8" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="O8" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P8" s="16" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Q8" s="16" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="R8" s="16">
         <v>1</v>
@@ -2448,35 +2472,35 @@
         <v>10</v>
       </c>
       <c r="X8" s="5">
-        <v>58</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="2:24" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="64" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="65"/>
-      <c r="D9" s="66"/>
+      <c r="B9" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="47"/>
+      <c r="D9" s="48"/>
       <c r="E9" s="21"/>
-      <c r="F9" s="40" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="58"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="58"/>
+      <c r="F9" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="M9" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="N9" s="11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="O9" s="17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P9" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="17">
         <v>3</v>
@@ -2492,35 +2516,35 @@
         <v>11</v>
       </c>
       <c r="X9" s="5">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="2:24" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
+      <c r="B10" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
       <c r="E10" s="21"/>
-      <c r="F10" s="59" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" s="59"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="59"/>
+      <c r="F10" s="66" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="66"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="66"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="M10" s="13" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="N10" s="13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="O10" s="17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P10" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q10" s="17">
         <v>3</v>
@@ -2536,35 +2560,35 @@
         <v>12</v>
       </c>
       <c r="X10" s="30">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="2:24" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
+      <c r="B11" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
       <c r="E11" s="21"/>
-      <c r="F11" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
+      <c r="F11" s="64" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="65"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="65"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="M11" s="15" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="N11" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="O11" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P11" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q11" s="16">
         <v>8</v>
@@ -2580,177 +2604,169 @@
         <v>13</v>
       </c>
       <c r="X11" s="5">
-        <v>31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:24" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
+      <c r="B12" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
       <c r="M12" s="10" t="s">
         <v>7</v>
       </c>
       <c r="N12" s="15" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O12" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P12" s="16" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Q12" s="16" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="R12" s="16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S12" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T12" s="23"/>
-      <c r="W12" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="X12" s="5">
-        <v>23</v>
-      </c>
+      <c r="W12" s="67"/>
+      <c r="X12" s="67"/>
     </row>
     <row r="13" spans="2:24" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L13" s="14"/>
       <c r="M13" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="N13" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="N13" s="11" t="s">
+      <c r="O13" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="O13" s="17" t="s">
-        <v>31</v>
-      </c>
       <c r="P13" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q13" s="17">
         <v>13</v>
       </c>
       <c r="R13" s="17">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S13" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="T13" s="23"/>
-      <c r="W13" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="X13" s="5">
-        <v>0</v>
-      </c>
+      <c r="W13" s="67"/>
+      <c r="X13" s="67"/>
     </row>
     <row r="14" spans="2:24" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M14" s="11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="N14" s="13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="O14" s="17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P14" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q14" s="17">
         <v>8</v>
       </c>
       <c r="R14" s="17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S14" s="17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="T14" s="23"/>
     </row>
     <row r="15" spans="2:24" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="60"/>
-      <c r="C15" s="61"/>
-      <c r="D15" s="49" t="s">
-        <v>96</v>
-      </c>
-      <c r="E15" s="62"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="63"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="45"/>
       <c r="M15" s="11" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="N15" s="13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O15" s="17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P15" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q15" s="17">
         <v>8</v>
       </c>
       <c r="R15" s="17">
+        <v>2</v>
+      </c>
+      <c r="S15" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="T15" s="23"/>
+      <c r="W15" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="X15" s="38"/>
+    </row>
+    <row r="16" spans="2:24" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="S15" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="T15" s="23"/>
-      <c r="W15" s="40" t="s">
-        <v>99</v>
-      </c>
-      <c r="X15" s="40"/>
-    </row>
-    <row r="16" spans="2:24" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="39"/>
+      <c r="C16" s="50"/>
       <c r="D16" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="27" t="s">
+      <c r="F16" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="28" t="s">
+      <c r="G16" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="G16" s="28" t="s">
+      <c r="H16" s="28" t="s">
         <v>23</v>
-      </c>
-      <c r="H16" s="28" t="s">
-        <v>24</v>
       </c>
       <c r="I16" s="20"/>
       <c r="M16" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="N16" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O16" s="17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P16" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q16" s="17">
         <v>8</v>
       </c>
       <c r="R16" s="17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S16" s="17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="T16" s="23"/>
       <c r="W16" s="8" t="s">
@@ -2761,10 +2777,10 @@
       </c>
     </row>
     <row r="17" spans="2:24" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="39"/>
+      <c r="B17" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="50"/>
       <c r="D17" s="25">
         <v>3</v>
       </c>
@@ -2781,16 +2797,16 @@
         <v>21</v>
       </c>
       <c r="M17" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N17" s="11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O17" s="17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P17" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q17" s="17">
         <v>8</v>
@@ -2816,25 +2832,25 @@
       <c r="F18" s="29"/>
       <c r="G18" s="29"/>
       <c r="M18" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="N18" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="O18" s="17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P18" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q18" s="17">
         <v>8</v>
       </c>
       <c r="R18" s="17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S18" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T18" s="23"/>
       <c r="U18" s="14"/>
@@ -2851,25 +2867,25 @@
       <c r="F19" s="29"/>
       <c r="G19" s="29"/>
       <c r="M19" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N19" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="O19" s="17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P19" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q19" s="17">
         <v>8</v>
       </c>
       <c r="R19" s="17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S19" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T19" s="23"/>
       <c r="U19" s="14"/>
@@ -2886,25 +2902,25 @@
       <c r="F20" s="29"/>
       <c r="G20" s="29"/>
       <c r="M20" s="11" t="s">
-        <v>30</v>
+        <v>117</v>
       </c>
       <c r="N20" s="13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="O20" s="17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P20" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q20" s="17">
         <v>8</v>
       </c>
       <c r="R20" s="17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S20" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T20" s="23"/>
       <c r="W20" s="30" t="s">
@@ -2920,25 +2936,25 @@
       <c r="F21" s="29"/>
       <c r="G21" s="29"/>
       <c r="M21" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N21" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="O21" s="17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P21" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q21" s="17">
         <v>8</v>
       </c>
       <c r="R21" s="17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S21" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T21" s="23"/>
       <c r="W21" s="5" t="s">
@@ -2948,44 +2964,44 @@
     </row>
     <row r="22" spans="2:24" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M22" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="N22" s="13" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="O22" s="17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P22" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q22" s="17">
         <v>13</v>
       </c>
       <c r="R22" s="17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S22" s="17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="T22" s="23"/>
-      <c r="W22" s="5" t="s">
+      <c r="W22" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="X22" s="5"/>
+      <c r="X22" s="4"/>
     </row>
     <row r="23" spans="2:24" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M23" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N23" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="O23" s="17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P23" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q23" s="17">
         <v>8</v>
@@ -2997,23 +3013,19 @@
         <v>10</v>
       </c>
       <c r="T23" s="23"/>
-      <c r="W23" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="X23" s="4"/>
     </row>
     <row r="24" spans="2:24" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M24" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="N24" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="O24" s="17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P24" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q24" s="17">
         <v>8</v>
@@ -3033,235 +3045,235 @@
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
       <c r="M25" s="10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N25" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O25" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P25" s="16" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Q25" s="16" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="R25" s="16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S25" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T25" s="24"/>
     </row>
     <row r="26" spans="2:24" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M26" s="11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="N26" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="O26" s="17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P26" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q26" s="17">
         <v>5</v>
       </c>
       <c r="R26" s="17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S26" s="17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="T26" s="23"/>
     </row>
     <row r="27" spans="2:24" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M27" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N27" s="13" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O27" s="17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P27" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q27" s="17">
         <v>5</v>
       </c>
       <c r="R27" s="17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S27" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T27" s="23"/>
     </row>
     <row r="28" spans="2:24" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M28" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="N28" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="O28" s="17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="P28" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q28" s="17">
         <v>5</v>
       </c>
       <c r="R28" s="17">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S28" s="17" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="T28" s="23"/>
     </row>
     <row r="29" spans="2:24" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M29" s="13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="N29" s="13" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="O29" s="17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="P29" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q29" s="17">
         <v>5</v>
       </c>
       <c r="R29" s="17">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="S29" s="17" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="T29" s="23"/>
     </row>
     <row r="30" spans="2:24" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M30" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N30" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O30" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P30" s="16" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Q30" s="16" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="R30" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S30" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T30" s="23"/>
     </row>
     <row r="31" spans="2:24" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M31" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N31" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="O31" s="17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P31" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q31" s="17">
         <v>13</v>
       </c>
       <c r="R31" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S31" s="17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T31" s="23"/>
     </row>
     <row r="32" spans="2:24" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M32" s="13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="N32" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="O32" s="17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P32" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q32" s="17">
         <v>3</v>
       </c>
       <c r="R32" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S32" s="17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T32" s="23"/>
     </row>
     <row r="33" spans="13:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M33" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N33" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="O33" s="17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P33" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q33" s="17">
         <v>5</v>
       </c>
       <c r="R33" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S33" s="17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T33" s="23"/>
     </row>
     <row r="34" spans="13:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M34" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N34" s="15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="O34" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P34" s="16" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Q34" s="16" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="R34" s="16">
         <v>1</v>
@@ -3273,16 +3285,16 @@
     </row>
     <row r="35" spans="13:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M35" s="13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="N35" s="13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="O35" s="17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P35" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q35" s="17">
         <v>5</v>
@@ -3297,16 +3309,16 @@
     </row>
     <row r="36" spans="13:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M36" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="N36" s="11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O36" s="17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P36" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q36" s="17">
         <v>5</v>
@@ -3321,16 +3333,16 @@
     </row>
     <row r="37" spans="13:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M37" s="11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="N37" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="O37" s="17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P37" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q37" s="17">
         <v>8</v>
@@ -3345,16 +3357,16 @@
     </row>
     <row r="38" spans="13:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M38" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="N38" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="O38" s="17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P38" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q38" s="17">
         <v>13</v>
@@ -3369,16 +3381,16 @@
     </row>
     <row r="39" spans="13:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M39" s="11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="N39" s="13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="O39" s="17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P39" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q39" s="17">
         <v>8</v>
@@ -3393,16 +3405,16 @@
     </row>
     <row r="40" spans="13:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M40" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="N40" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="O40" s="17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P40" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q40" s="17">
         <v>8</v>
@@ -3417,16 +3429,16 @@
     </row>
     <row r="41" spans="13:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M41" s="11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="N41" s="11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O41" s="17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P41" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q41" s="17">
         <v>3</v>
@@ -3441,145 +3453,145 @@
     </row>
     <row r="42" spans="13:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M42" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="N42" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="O42" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P42" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q42" s="16">
         <v>5</v>
       </c>
       <c r="R42" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S42" s="16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="T42" s="23"/>
     </row>
     <row r="43" spans="13:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M43" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="N43" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O43" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P43" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q43" s="16">
         <v>5</v>
       </c>
       <c r="R43" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S43" s="16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="T43" s="23"/>
     </row>
     <row r="44" spans="13:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M44" s="10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="N44" s="10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O44" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P44" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q44" s="16">
         <v>8</v>
       </c>
       <c r="R44" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S44" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T44" s="23"/>
     </row>
     <row r="45" spans="13:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M45" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N45" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="O45" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P45" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q45" s="16">
         <v>13</v>
       </c>
       <c r="R45" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S45" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T45" s="23"/>
     </row>
     <row r="46" spans="13:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M46" s="15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="N46" s="10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="O46" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P46" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q46" s="16">
         <v>21</v>
       </c>
       <c r="R46" s="16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S46" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="T46" s="23"/>
     </row>
     <row r="47" spans="13:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M47" s="15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="N47" s="15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="O47" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P47" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q47" s="16">
         <v>5</v>
       </c>
       <c r="R47" s="16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S47" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="T47" s="23"/>
     </row>
@@ -3727,12 +3739,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="W15:X15"/>
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="B9:D9"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="M5:T5"/>
@@ -3747,6 +3753,12 @@
     <mergeCell ref="F11:I11"/>
     <mergeCell ref="F9:I9"/>
     <mergeCell ref="F10:I10"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="W15:X15"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="B9:D9"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>

--- a/BACKLOG PROJETO INDIVIDUAL.xlsx
+++ b/BACKLOG PROJETO INDIVIDUAL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6718dc6c59bca538/Documentos/Projetos PI/Pequenos Netherland/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="456" documentId="13_ncr:1_{2DF89E18-3D0C-4016-8198-AB1920DFF2DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D07268CE-525D-436B-A8B6-B3BB2E17B774}"/>
+  <xr:revisionPtr revIDLastSave="460" documentId="13_ncr:1_{2DF89E18-3D0C-4016-8198-AB1920DFF2DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4B932BBE-AAE1-4BAC-A610-4B6D95786C5D}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{BB669365-8FD1-43E2-B311-9ACD144396A7}"/>
   </bookViews>
@@ -440,7 +440,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -518,6 +518,14 @@
     <font>
       <b/>
       <sz val="14"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="16"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -808,7 +816,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -917,22 +925,79 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -950,62 +1015,8 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2301,8 +2312,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0A4729E-3F66-4FBE-B00E-8133F9F452C5}">
   <dimension ref="B4:X64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="41" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AA23" sqref="AA23"/>
+    <sheetView tabSelected="1" topLeftCell="L31" zoomScale="107" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="T36" sqref="T36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2319,50 +2330,50 @@
   <sheetData>
     <row r="4" spans="2:24" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="60"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="43" t="s">
+      <c r="B5" s="53"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="58"/>
-      <c r="I5" s="59"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="52"/>
       <c r="J5" s="7"/>
       <c r="K5" s="3"/>
-      <c r="M5" s="38" t="s">
+      <c r="M5" s="41" t="s">
         <v>106</v>
       </c>
-      <c r="N5" s="38"/>
-      <c r="O5" s="38"/>
-      <c r="P5" s="38"/>
-      <c r="Q5" s="38"/>
-      <c r="R5" s="38"/>
-      <c r="S5" s="38"/>
-      <c r="T5" s="38"/>
-      <c r="W5" s="38" t="s">
+      <c r="N5" s="41"/>
+      <c r="O5" s="41"/>
+      <c r="P5" s="41"/>
+      <c r="Q5" s="41"/>
+      <c r="R5" s="41"/>
+      <c r="S5" s="41"/>
+      <c r="T5" s="41"/>
+      <c r="W5" s="41" t="s">
         <v>98</v>
       </c>
-      <c r="X5" s="39"/>
+      <c r="X5" s="59"/>
     </row>
     <row r="6" spans="2:24" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="62" t="s">
+      <c r="B6" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="63"/>
-      <c r="D6" s="52" t="s">
+      <c r="C6" s="56"/>
+      <c r="D6" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="53"/>
-      <c r="F6" s="54" t="s">
+      <c r="E6" s="45"/>
+      <c r="F6" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="55"/>
-      <c r="H6" s="56" t="s">
+      <c r="G6" s="47"/>
+      <c r="H6" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="57"/>
+      <c r="I6" s="49"/>
       <c r="J6" s="6"/>
       <c r="K6" s="2"/>
       <c r="M6" s="1" t="s">
@@ -2476,18 +2487,18 @@
       </c>
     </row>
     <row r="9" spans="2:24" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="47"/>
-      <c r="D9" s="48"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="67"/>
       <c r="E9" s="21"/>
-      <c r="F9" s="38" t="s">
+      <c r="F9" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="59"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="M9" s="11" t="s">
@@ -2520,18 +2531,18 @@
       </c>
     </row>
     <row r="10" spans="2:24" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
       <c r="E10" s="21"/>
-      <c r="F10" s="66" t="s">
+      <c r="F10" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="66"/>
-      <c r="H10" s="66"/>
-      <c r="I10" s="66"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="60"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="M10" s="13" t="s">
@@ -2564,18 +2575,18 @@
       </c>
     </row>
     <row r="11" spans="2:24" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
       <c r="E11" s="21"/>
-      <c r="F11" s="64" t="s">
+      <c r="F11" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="65"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="65"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="58"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="M11" s="15" t="s">
@@ -2608,11 +2619,11 @@
       </c>
     </row>
     <row r="12" spans="2:24" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="40" t="s">
+      <c r="B12" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
       <c r="M12" s="10" t="s">
         <v>7</v>
       </c>
@@ -2635,8 +2646,8 @@
         <v>11</v>
       </c>
       <c r="T12" s="23"/>
-      <c r="W12" s="67"/>
-      <c r="X12" s="67"/>
+      <c r="W12" s="38"/>
+      <c r="X12" s="38"/>
     </row>
     <row r="13" spans="2:24" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L13" s="14"/>
@@ -2662,8 +2673,8 @@
         <v>10</v>
       </c>
       <c r="T13" s="23"/>
-      <c r="W13" s="67"/>
-      <c r="X13" s="67"/>
+      <c r="W13" s="38"/>
+      <c r="X13" s="38"/>
     </row>
     <row r="14" spans="2:24" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M14" s="11" t="s">
@@ -2690,15 +2701,15 @@
       <c r="T14" s="23"/>
     </row>
     <row r="15" spans="2:24" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="41"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="43" t="s">
+      <c r="B15" s="61"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="50" t="s">
         <v>94</v>
       </c>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="45"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="64"/>
       <c r="M15" s="11" t="s">
         <v>116</v>
       </c>
@@ -2721,16 +2732,16 @@
         <v>10</v>
       </c>
       <c r="T15" s="23"/>
-      <c r="W15" s="38" t="s">
+      <c r="W15" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="X15" s="38"/>
+      <c r="X15" s="41"/>
     </row>
     <row r="16" spans="2:24" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="49" t="s">
+      <c r="B16" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="50"/>
+      <c r="C16" s="40"/>
       <c r="D16" s="27" t="s">
         <v>19</v>
       </c>
@@ -2777,10 +2788,10 @@
       </c>
     </row>
     <row r="17" spans="2:24" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="49" t="s">
+      <c r="B17" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="50"/>
+      <c r="C17" s="40"/>
       <c r="D17" s="25">
         <v>3</v>
       </c>
@@ -3281,7 +3292,7 @@
       <c r="S34" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="T34" s="23"/>
+      <c r="T34" s="32"/>
     </row>
     <row r="35" spans="13:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M35" s="13" t="s">
@@ -3305,7 +3316,7 @@
       <c r="S35" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="T35" s="23"/>
+      <c r="T35" s="33"/>
     </row>
     <row r="36" spans="13:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M36" s="11" t="s">
@@ -3329,7 +3340,7 @@
       <c r="S36" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="T36" s="23"/>
+      <c r="T36" s="68"/>
     </row>
     <row r="37" spans="13:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M37" s="11" t="s">
@@ -3739,6 +3750,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="W15:X15"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="B9:D9"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="M5:T5"/>
@@ -3753,12 +3770,6 @@
     <mergeCell ref="F11:I11"/>
     <mergeCell ref="F9:I9"/>
     <mergeCell ref="F10:I10"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="W15:X15"/>
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="B9:D9"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>

--- a/BACKLOG PROJETO INDIVIDUAL.xlsx
+++ b/BACKLOG PROJETO INDIVIDUAL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6718dc6c59bca538/Documentos/Projetos PI/Pequenos Netherland/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="460" documentId="13_ncr:1_{2DF89E18-3D0C-4016-8198-AB1920DFF2DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4B932BBE-AAE1-4BAC-A610-4B6D95786C5D}"/>
+  <xr:revisionPtr revIDLastSave="462" documentId="13_ncr:1_{2DF89E18-3D0C-4016-8198-AB1920DFF2DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{491C333E-3AE8-4CE5-B88A-E6C739B7233D}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{BB669365-8FD1-43E2-B311-9ACD144396A7}"/>
   </bookViews>
@@ -928,76 +928,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1015,7 +961,61 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1989,10 +1989,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
@@ -2312,8 +2308,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0A4729E-3F66-4FBE-B00E-8133F9F452C5}">
   <dimension ref="B4:X64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L31" zoomScale="107" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="T36" sqref="T36"/>
+    <sheetView tabSelected="1" topLeftCell="M30" zoomScale="107" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="T37" sqref="T37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2330,50 +2326,50 @@
   <sheetData>
     <row r="4" spans="2:24" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="53"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="50" t="s">
+      <c r="B5" s="61"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="52"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="60"/>
       <c r="J5" s="7"/>
       <c r="K5" s="3"/>
-      <c r="M5" s="41" t="s">
+      <c r="M5" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="N5" s="41"/>
-      <c r="O5" s="41"/>
-      <c r="P5" s="41"/>
-      <c r="Q5" s="41"/>
-      <c r="R5" s="41"/>
-      <c r="S5" s="41"/>
-      <c r="T5" s="41"/>
-      <c r="W5" s="41" t="s">
+      <c r="N5" s="39"/>
+      <c r="O5" s="39"/>
+      <c r="P5" s="39"/>
+      <c r="Q5" s="39"/>
+      <c r="R5" s="39"/>
+      <c r="S5" s="39"/>
+      <c r="T5" s="39"/>
+      <c r="W5" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="X5" s="59"/>
+      <c r="X5" s="40"/>
     </row>
     <row r="6" spans="2:24" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="55" t="s">
+      <c r="B6" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="56"/>
-      <c r="D6" s="44" t="s">
+      <c r="C6" s="64"/>
+      <c r="D6" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="45"/>
-      <c r="F6" s="46" t="s">
+      <c r="E6" s="54"/>
+      <c r="F6" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="47"/>
-      <c r="H6" s="48" t="s">
+      <c r="G6" s="56"/>
+      <c r="H6" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="49"/>
+      <c r="I6" s="58"/>
       <c r="J6" s="6"/>
       <c r="K6" s="2"/>
       <c r="M6" s="1" t="s">
@@ -2487,18 +2483,18 @@
       </c>
     </row>
     <row r="9" spans="2:24" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="65" t="s">
+      <c r="B9" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="66"/>
-      <c r="D9" s="67"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="49"/>
       <c r="E9" s="21"/>
-      <c r="F9" s="41" t="s">
+      <c r="F9" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="59"/>
-      <c r="H9" s="59"/>
-      <c r="I9" s="59"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="M9" s="11" t="s">
@@ -2531,18 +2527,18 @@
       </c>
     </row>
     <row r="10" spans="2:24" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
       <c r="E10" s="21"/>
-      <c r="F10" s="60" t="s">
+      <c r="F10" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="60"/>
-      <c r="H10" s="60"/>
-      <c r="I10" s="60"/>
+      <c r="G10" s="67"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="67"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="M10" s="13" t="s">
@@ -2575,18 +2571,18 @@
       </c>
     </row>
     <row r="11" spans="2:24" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
       <c r="E11" s="21"/>
-      <c r="F11" s="57" t="s">
+      <c r="F11" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="58"/>
-      <c r="H11" s="58"/>
-      <c r="I11" s="58"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="66"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="M11" s="15" t="s">
@@ -2619,11 +2615,11 @@
       </c>
     </row>
     <row r="12" spans="2:24" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="52"/>
       <c r="M12" s="10" t="s">
         <v>7</v>
       </c>
@@ -2701,15 +2697,15 @@
       <c r="T14" s="23"/>
     </row>
     <row r="15" spans="2:24" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="61"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="50" t="s">
+      <c r="B15" s="42"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="44" t="s">
         <v>94</v>
       </c>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="64"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="46"/>
       <c r="M15" s="11" t="s">
         <v>116</v>
       </c>
@@ -2732,16 +2728,16 @@
         <v>10</v>
       </c>
       <c r="T15" s="23"/>
-      <c r="W15" s="41" t="s">
+      <c r="W15" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="X15" s="41"/>
+      <c r="X15" s="39"/>
     </row>
     <row r="16" spans="2:24" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="39" t="s">
+      <c r="B16" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="40"/>
+      <c r="C16" s="51"/>
       <c r="D16" s="27" t="s">
         <v>19</v>
       </c>
@@ -2788,10 +2784,10 @@
       </c>
     </row>
     <row r="17" spans="2:24" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="39" t="s">
+      <c r="B17" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="40"/>
+      <c r="C17" s="51"/>
       <c r="D17" s="25">
         <v>3</v>
       </c>
@@ -3364,7 +3360,7 @@
       <c r="S37" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="T37" s="23"/>
+      <c r="T37" s="32"/>
     </row>
     <row r="38" spans="13:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M38" s="11" t="s">
@@ -3750,12 +3746,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="W15:X15"/>
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="B9:D9"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="M5:T5"/>
@@ -3770,6 +3760,12 @@
     <mergeCell ref="F11:I11"/>
     <mergeCell ref="F9:I9"/>
     <mergeCell ref="F10:I10"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="W15:X15"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="B9:D9"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>

--- a/BACKLOG PROJETO INDIVIDUAL.xlsx
+++ b/BACKLOG PROJETO INDIVIDUAL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6718dc6c59bca538/Documentos/Projetos PI/Pequenos Netherland/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="462" documentId="13_ncr:1_{2DF89E18-3D0C-4016-8198-AB1920DFF2DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{491C333E-3AE8-4CE5-B88A-E6C739B7233D}"/>
+  <xr:revisionPtr revIDLastSave="463" documentId="13_ncr:1_{2DF89E18-3D0C-4016-8198-AB1920DFF2DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B46E8B6B-3DC0-4500-ADB9-28610B3709AC}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{BB669365-8FD1-43E2-B311-9ACD144396A7}"/>
   </bookViews>
@@ -928,22 +928,79 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -960,63 +1017,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1989,6 +1989,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
@@ -2326,50 +2330,50 @@
   <sheetData>
     <row r="4" spans="2:24" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="61"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="44" t="s">
+      <c r="B5" s="54"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="60"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="53"/>
       <c r="J5" s="7"/>
       <c r="K5" s="3"/>
-      <c r="M5" s="39" t="s">
+      <c r="M5" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="N5" s="39"/>
-      <c r="O5" s="39"/>
-      <c r="P5" s="39"/>
-      <c r="Q5" s="39"/>
-      <c r="R5" s="39"/>
-      <c r="S5" s="39"/>
-      <c r="T5" s="39"/>
-      <c r="W5" s="39" t="s">
+      <c r="N5" s="42"/>
+      <c r="O5" s="42"/>
+      <c r="P5" s="42"/>
+      <c r="Q5" s="42"/>
+      <c r="R5" s="42"/>
+      <c r="S5" s="42"/>
+      <c r="T5" s="42"/>
+      <c r="W5" s="42" t="s">
         <v>98</v>
       </c>
-      <c r="X5" s="40"/>
+      <c r="X5" s="60"/>
     </row>
     <row r="6" spans="2:24" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="63" t="s">
+      <c r="B6" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="64"/>
-      <c r="D6" s="53" t="s">
+      <c r="C6" s="57"/>
+      <c r="D6" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="54"/>
-      <c r="F6" s="55" t="s">
+      <c r="E6" s="46"/>
+      <c r="F6" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="56"/>
-      <c r="H6" s="57" t="s">
+      <c r="G6" s="48"/>
+      <c r="H6" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="58"/>
+      <c r="I6" s="50"/>
       <c r="J6" s="6"/>
       <c r="K6" s="2"/>
       <c r="M6" s="1" t="s">
@@ -2483,18 +2487,18 @@
       </c>
     </row>
     <row r="9" spans="2:24" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="47" t="s">
+      <c r="B9" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="48"/>
-      <c r="D9" s="49"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="68"/>
       <c r="E9" s="21"/>
-      <c r="F9" s="39" t="s">
+      <c r="F9" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="60"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="M9" s="11" t="s">
@@ -2527,18 +2531,18 @@
       </c>
     </row>
     <row r="10" spans="2:24" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
       <c r="E10" s="21"/>
-      <c r="F10" s="67" t="s">
+      <c r="F10" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="67"/>
-      <c r="H10" s="67"/>
-      <c r="I10" s="67"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="61"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="M10" s="13" t="s">
@@ -2571,18 +2575,18 @@
       </c>
     </row>
     <row r="11" spans="2:24" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="41" t="s">
+      <c r="B11" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
       <c r="E11" s="21"/>
-      <c r="F11" s="65" t="s">
+      <c r="F11" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="66"/>
-      <c r="H11" s="66"/>
-      <c r="I11" s="66"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="59"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="M11" s="15" t="s">
@@ -2615,11 +2619,11 @@
       </c>
     </row>
     <row r="12" spans="2:24" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="41" t="s">
+      <c r="B12" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="52"/>
-      <c r="D12" s="52"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
       <c r="M12" s="10" t="s">
         <v>7</v>
       </c>
@@ -2697,15 +2701,15 @@
       <c r="T14" s="23"/>
     </row>
     <row r="15" spans="2:24" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="42"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="44" t="s">
+      <c r="B15" s="62"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="51" t="s">
         <v>94</v>
       </c>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="46"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="65"/>
       <c r="M15" s="11" t="s">
         <v>116</v>
       </c>
@@ -2728,16 +2732,16 @@
         <v>10</v>
       </c>
       <c r="T15" s="23"/>
-      <c r="W15" s="39" t="s">
+      <c r="W15" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="X15" s="39"/>
+      <c r="X15" s="42"/>
     </row>
     <row r="16" spans="2:24" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="50" t="s">
+      <c r="B16" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="51"/>
+      <c r="C16" s="41"/>
       <c r="D16" s="27" t="s">
         <v>19</v>
       </c>
@@ -2784,10 +2788,10 @@
       </c>
     </row>
     <row r="17" spans="2:24" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="50" t="s">
+      <c r="B17" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="51"/>
+      <c r="C17" s="41"/>
       <c r="D17" s="25">
         <v>3</v>
       </c>
@@ -3336,7 +3340,7 @@
       <c r="S36" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="T36" s="68"/>
+      <c r="T36" s="39"/>
     </row>
     <row r="37" spans="13:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M37" s="11" t="s">
@@ -3360,7 +3364,7 @@
       <c r="S37" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="T37" s="32"/>
+      <c r="T37" s="33"/>
     </row>
     <row r="38" spans="13:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M38" s="11" t="s">
@@ -3746,6 +3750,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="W15:X15"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="B9:D9"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="M5:T5"/>
@@ -3760,12 +3770,6 @@
     <mergeCell ref="F11:I11"/>
     <mergeCell ref="F9:I9"/>
     <mergeCell ref="F10:I10"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="W15:X15"/>
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="B9:D9"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>

--- a/BACKLOG PROJETO INDIVIDUAL.xlsx
+++ b/BACKLOG PROJETO INDIVIDUAL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6718dc6c59bca538/Documentos/Projetos PI/Pequenos Netherland/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="463" documentId="13_ncr:1_{2DF89E18-3D0C-4016-8198-AB1920DFF2DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B46E8B6B-3DC0-4500-ADB9-28610B3709AC}"/>
+  <xr:revisionPtr revIDLastSave="488" documentId="13_ncr:1_{2DF89E18-3D0C-4016-8198-AB1920DFF2DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{55CCBB35-3398-4610-83FA-178AF6831020}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{BB669365-8FD1-43E2-B311-9ACD144396A7}"/>
   </bookViews>
@@ -280,16 +280,10 @@
     <t xml:space="preserve">Limitações que comprometem a execução </t>
   </si>
   <si>
-    <t>Diagrama de solução</t>
-  </si>
-  <si>
     <t>representação gráfica usada para demonstrar o esquema simplificado e o
 resumo sobre um assunto.</t>
   </si>
   <si>
-    <t>Arquitetura</t>
-  </si>
-  <si>
     <t>Diagrama de solução tecnica com informações tecnica 
 do que sera usado no projeto</t>
   </si>
@@ -434,13 +428,19 @@
   </si>
   <si>
     <t>Tela CurioSPRINT 02sidades</t>
+  </si>
+  <si>
+    <t>Diagrama de visão de negocio</t>
+  </si>
+  <si>
+    <t>Diagrama de solução tecnica</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -525,6 +525,21 @@
     <font>
       <u/>
       <sz val="16"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF00FF00"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -816,7 +831,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -931,76 +946,22 @@
     <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1017,6 +978,66 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1026,9 +1047,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFC5D3FF"/>
       <color rgb="FF00FF00"/>
       <color rgb="FF63A4F7"/>
-      <color rgb="FFC5D3FF"/>
       <color rgb="FFCCCCFF"/>
       <color rgb="FFCCECFF"/>
       <color rgb="FF99CCFF"/>
@@ -1209,10 +1230,10 @@
                   <c:v>271</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>109</c:v>
+                  <c:v>111</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>76</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>50</c:v>
@@ -2312,8 +2333,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0A4729E-3F66-4FBE-B00E-8133F9F452C5}">
   <dimension ref="B4:X64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M30" zoomScale="107" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="T37" sqref="T37"/>
+    <sheetView tabSelected="1" topLeftCell="L39" zoomScale="66" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="X43" sqref="X43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2330,50 +2351,50 @@
   <sheetData>
     <row r="4" spans="2:24" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="54"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="51" t="s">
+      <c r="B5" s="62"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="53"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="61"/>
       <c r="J5" s="7"/>
       <c r="K5" s="3"/>
-      <c r="M5" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="N5" s="42"/>
-      <c r="O5" s="42"/>
-      <c r="P5" s="42"/>
-      <c r="Q5" s="42"/>
-      <c r="R5" s="42"/>
-      <c r="S5" s="42"/>
-      <c r="T5" s="42"/>
-      <c r="W5" s="42" t="s">
-        <v>98</v>
-      </c>
-      <c r="X5" s="60"/>
+      <c r="M5" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="N5" s="40"/>
+      <c r="O5" s="40"/>
+      <c r="P5" s="40"/>
+      <c r="Q5" s="40"/>
+      <c r="R5" s="40"/>
+      <c r="S5" s="40"/>
+      <c r="T5" s="40"/>
+      <c r="W5" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="X5" s="41"/>
     </row>
     <row r="6" spans="2:24" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="56" t="s">
+      <c r="B6" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="57"/>
-      <c r="D6" s="45" t="s">
+      <c r="C6" s="65"/>
+      <c r="D6" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="46"/>
-      <c r="F6" s="47" t="s">
+      <c r="E6" s="55"/>
+      <c r="F6" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="48"/>
-      <c r="H6" s="49" t="s">
+      <c r="G6" s="57"/>
+      <c r="H6" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="50"/>
+      <c r="I6" s="59"/>
       <c r="J6" s="6"/>
       <c r="K6" s="2"/>
       <c r="M6" s="1" t="s">
@@ -2418,10 +2439,10 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="M7" s="15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="N7" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="O7" s="34" t="s">
         <v>30</v>
@@ -2443,7 +2464,7 @@
         <v>9</v>
       </c>
       <c r="X7" s="36">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="2:24" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2458,19 +2479,19 @@
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="M8" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="N8" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O8" s="16" t="s">
         <v>30</v>
       </c>
       <c r="P8" s="16" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="Q8" s="16" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="R8" s="16">
         <v>1</v>
@@ -2483,29 +2504,29 @@
         <v>10</v>
       </c>
       <c r="X8" s="5">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="2:24" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="66" t="s">
+      <c r="B9" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="67"/>
-      <c r="D9" s="68"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="50"/>
       <c r="E9" s="21"/>
-      <c r="F9" s="42" t="s">
+      <c r="F9" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="60"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="M9" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="N9" s="11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="O9" s="17" t="s">
         <v>30</v>
@@ -2526,30 +2547,30 @@
       <c r="W9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="X9" s="5">
+      <c r="X9" s="70">
         <v>50</v>
       </c>
     </row>
     <row r="10" spans="2:24" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
       <c r="E10" s="21"/>
-      <c r="F10" s="61" t="s">
+      <c r="F10" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="61"/>
-      <c r="H10" s="61"/>
-      <c r="I10" s="61"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="68"/>
+      <c r="I10" s="68"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="M10" s="13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="N10" s="13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="O10" s="17" t="s">
         <v>30</v>
@@ -2575,25 +2596,25 @@
       </c>
     </row>
     <row r="11" spans="2:24" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
       <c r="E11" s="21"/>
-      <c r="F11" s="58" t="s">
+      <c r="F11" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="59"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="59"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="67"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="M11" s="15" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="N11" s="15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="O11" s="16" t="s">
         <v>30</v>
@@ -2619,25 +2640,25 @@
       </c>
     </row>
     <row r="12" spans="2:24" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="43" t="s">
+      <c r="B12" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
       <c r="M12" s="10" t="s">
         <v>7</v>
       </c>
       <c r="N12" s="15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="O12" s="16" t="s">
         <v>30</v>
       </c>
       <c r="P12" s="16" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="Q12" s="16" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="R12" s="16">
         <v>3</v>
@@ -2701,17 +2722,17 @@
       <c r="T14" s="23"/>
     </row>
     <row r="15" spans="2:24" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="62"/>
-      <c r="C15" s="63"/>
-      <c r="D15" s="51" t="s">
-        <v>94</v>
-      </c>
-      <c r="E15" s="64"/>
-      <c r="F15" s="64"/>
-      <c r="G15" s="64"/>
-      <c r="H15" s="65"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="47"/>
       <c r="M15" s="11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="N15" s="13" t="s">
         <v>37</v>
@@ -2732,16 +2753,16 @@
         <v>10</v>
       </c>
       <c r="T15" s="23"/>
-      <c r="W15" s="42" t="s">
-        <v>97</v>
-      </c>
-      <c r="X15" s="42"/>
+      <c r="W15" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="X15" s="40"/>
     </row>
     <row r="16" spans="2:24" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="40" t="s">
+      <c r="B16" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="41"/>
+      <c r="C16" s="52"/>
       <c r="D16" s="27" t="s">
         <v>19</v>
       </c>
@@ -2788,10 +2809,10 @@
       </c>
     </row>
     <row r="17" spans="2:24" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="40" t="s">
+      <c r="B17" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="41"/>
+      <c r="C17" s="52"/>
       <c r="D17" s="25">
         <v>3</v>
       </c>
@@ -2913,7 +2934,7 @@
       <c r="F20" s="29"/>
       <c r="G20" s="29"/>
       <c r="M20" s="11" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N20" s="13" t="s">
         <v>55</v>
@@ -2975,10 +2996,10 @@
     </row>
     <row r="22" spans="2:24" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M22" s="11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="N22" s="13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="O22" s="17" t="s">
         <v>30</v>
@@ -3056,7 +3077,7 @@
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
       <c r="M25" s="10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="N25" s="10" t="s">
         <v>38</v>
@@ -3065,10 +3086,10 @@
         <v>30</v>
       </c>
       <c r="P25" s="16" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="Q25" s="16" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="R25" s="16">
         <v>3</v>
@@ -3080,10 +3101,10 @@
     </row>
     <row r="26" spans="2:24" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M26" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="N26" s="13" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="O26" s="17" t="s">
         <v>32</v>
@@ -3104,10 +3125,10 @@
     </row>
     <row r="27" spans="2:24" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M27" s="11" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="N27" s="13" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="O27" s="17" t="s">
         <v>30</v>
@@ -3128,10 +3149,10 @@
     </row>
     <row r="28" spans="2:24" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M28" s="11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="N28" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="O28" s="17" t="s">
         <v>29</v>
@@ -3152,10 +3173,10 @@
     </row>
     <row r="29" spans="2:24" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M29" s="13" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N29" s="13" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O29" s="17" t="s">
         <v>29</v>
@@ -3185,10 +3206,10 @@
         <v>30</v>
       </c>
       <c r="P30" s="16" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="Q30" s="16" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="R30" s="16">
         <v>1</v>
@@ -3224,10 +3245,10 @@
     </row>
     <row r="32" spans="2:24" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M32" s="13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N32" s="13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="O32" s="17" t="s">
         <v>32</v>
@@ -3281,10 +3302,10 @@
         <v>30</v>
       </c>
       <c r="P34" s="16" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="Q34" s="16" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="R34" s="16">
         <v>1</v>
@@ -3296,10 +3317,10 @@
     </row>
     <row r="35" spans="13:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M35" s="13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="N35" s="13" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="O35" s="17" t="s">
         <v>30</v>
@@ -3368,19 +3389,19 @@
     </row>
     <row r="38" spans="13:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M38" s="11" t="s">
-        <v>63</v>
+        <v>116</v>
       </c>
       <c r="N38" s="13" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="O38" s="17" t="s">
         <v>30</v>
       </c>
       <c r="P38" s="17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q38" s="17">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="R38" s="17">
         <v>1</v>
@@ -3388,23 +3409,23 @@
       <c r="S38" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="T38" s="23"/>
+      <c r="T38" s="69"/>
     </row>
     <row r="39" spans="13:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M39" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N39" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O39" s="17" t="s">
         <v>30</v>
       </c>
       <c r="P39" s="17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q39" s="17">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="R39" s="17">
         <v>1</v>
@@ -3412,14 +3433,14 @@
       <c r="S39" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="T39" s="23"/>
+      <c r="T39" s="32"/>
     </row>
     <row r="40" spans="13:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M40" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="N40" s="11" t="s">
-        <v>70</v>
+        <v>64</v>
+      </c>
+      <c r="N40" s="13" t="s">
+        <v>69</v>
       </c>
       <c r="O40" s="17" t="s">
         <v>30</v>
@@ -3440,19 +3461,19 @@
     </row>
     <row r="41" spans="13:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M41" s="11" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="N41" s="11" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="O41" s="17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P41" s="17" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q41" s="17">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="R41" s="17">
         <v>1</v>
@@ -3463,59 +3484,59 @@
       <c r="T41" s="23"/>
     </row>
     <row r="42" spans="13:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M42" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="N42" s="15" t="s">
+      <c r="M42" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N42" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="O42" s="16" t="s">
+      <c r="O42" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="P42" s="16" t="s">
+      <c r="P42" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="Q42" s="16">
+      <c r="Q42" s="17">
         <v>5</v>
       </c>
-      <c r="R42" s="16">
-        <v>2</v>
-      </c>
-      <c r="S42" s="16" t="s">
-        <v>10</v>
+      <c r="R42" s="17">
+        <v>1</v>
+      </c>
+      <c r="S42" s="17" t="s">
+        <v>9</v>
       </c>
       <c r="T42" s="23"/>
     </row>
     <row r="43" spans="13:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M43" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="N43" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="O43" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="P43" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q43" s="16">
-        <v>5</v>
-      </c>
-      <c r="R43" s="16">
-        <v>2</v>
-      </c>
-      <c r="S43" s="16" t="s">
-        <v>10</v>
+      <c r="M43" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="N43" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="O43" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="P43" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q43" s="17">
+        <v>3</v>
+      </c>
+      <c r="R43" s="17">
+        <v>1</v>
+      </c>
+      <c r="S43" s="17" t="s">
+        <v>9</v>
       </c>
       <c r="T43" s="23"/>
     </row>
     <row r="44" spans="13:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M44" s="10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N44" s="10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="O44" s="16" t="s">
         <v>30</v>
@@ -3536,10 +3557,10 @@
     </row>
     <row r="45" spans="13:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M45" s="10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="N45" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="O45" s="16" t="s">
         <v>30</v>
@@ -3560,10 +3581,10 @@
     </row>
     <row r="46" spans="13:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M46" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="N46" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="O46" s="16" t="s">
         <v>30</v>
@@ -3584,10 +3605,10 @@
     </row>
     <row r="47" spans="13:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M47" s="15" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="N47" s="15" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="O47" s="16" t="s">
         <v>30</v>
@@ -3616,16 +3637,7 @@
       <c r="S48" s="31"/>
       <c r="T48" s="31"/>
     </row>
-    <row r="49" spans="13:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M49" s="31"/>
-      <c r="N49" s="31"/>
-      <c r="O49" s="31"/>
-      <c r="P49" s="31"/>
-      <c r="Q49" s="31"/>
-      <c r="R49" s="31"/>
-      <c r="S49" s="31"/>
-      <c r="T49" s="31"/>
-    </row>
+    <row r="49" spans="13:20" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="50" spans="13:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M50" s="31"/>
       <c r="N50" s="31"/>
@@ -3750,12 +3762,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="W15:X15"/>
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="B9:D9"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="M5:T5"/>
@@ -3770,6 +3776,12 @@
     <mergeCell ref="F11:I11"/>
     <mergeCell ref="F9:I9"/>
     <mergeCell ref="F10:I10"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="W15:X15"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="B9:D9"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>

--- a/BACKLOG PROJETO INDIVIDUAL.xlsx
+++ b/BACKLOG PROJETO INDIVIDUAL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6718dc6c59bca538/Documentos/Projetos PI/Pequenos Netherland/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="488" documentId="13_ncr:1_{2DF89E18-3D0C-4016-8198-AB1920DFF2DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{55CCBB35-3398-4610-83FA-178AF6831020}"/>
+  <xr:revisionPtr revIDLastSave="489" documentId="13_ncr:1_{2DF89E18-3D0C-4016-8198-AB1920DFF2DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B39DAF64-1584-4596-B778-CE161E7B7762}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{BB669365-8FD1-43E2-B311-9ACD144396A7}"/>
   </bookViews>
@@ -946,22 +946,82 @@
     <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -978,66 +1038,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1047,8 +1047,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF00FF00"/>
       <color rgb="FFC5D3FF"/>
-      <color rgb="FF00FF00"/>
       <color rgb="FF63A4F7"/>
       <color rgb="FFCCCCFF"/>
       <color rgb="FFCCECFF"/>
@@ -2333,8 +2333,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0A4729E-3F66-4FBE-B00E-8133F9F452C5}">
   <dimension ref="B4:X64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L39" zoomScale="66" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="X43" sqref="X43"/>
+    <sheetView tabSelected="1" topLeftCell="E31" zoomScale="66" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2351,50 +2351,50 @@
   <sheetData>
     <row r="4" spans="2:24" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="62"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="45" t="s">
+      <c r="B5" s="56"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="60"/>
-      <c r="I5" s="61"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="55"/>
       <c r="J5" s="7"/>
       <c r="K5" s="3"/>
-      <c r="M5" s="40" t="s">
+      <c r="M5" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="N5" s="40"/>
-      <c r="O5" s="40"/>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="40"/>
-      <c r="R5" s="40"/>
-      <c r="S5" s="40"/>
-      <c r="T5" s="40"/>
-      <c r="W5" s="40" t="s">
+      <c r="N5" s="44"/>
+      <c r="O5" s="44"/>
+      <c r="P5" s="44"/>
+      <c r="Q5" s="44"/>
+      <c r="R5" s="44"/>
+      <c r="S5" s="44"/>
+      <c r="T5" s="44"/>
+      <c r="W5" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="X5" s="41"/>
+      <c r="X5" s="62"/>
     </row>
     <row r="6" spans="2:24" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="64" t="s">
+      <c r="B6" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="65"/>
-      <c r="D6" s="54" t="s">
+      <c r="C6" s="59"/>
+      <c r="D6" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="55"/>
-      <c r="F6" s="56" t="s">
+      <c r="E6" s="48"/>
+      <c r="F6" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="57"/>
-      <c r="H6" s="58" t="s">
+      <c r="G6" s="50"/>
+      <c r="H6" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="59"/>
+      <c r="I6" s="52"/>
       <c r="J6" s="6"/>
       <c r="K6" s="2"/>
       <c r="M6" s="1" t="s">
@@ -2508,18 +2508,18 @@
       </c>
     </row>
     <row r="9" spans="2:24" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="48" t="s">
+      <c r="B9" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="49"/>
-      <c r="D9" s="50"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="70"/>
       <c r="E9" s="21"/>
-      <c r="F9" s="40" t="s">
+      <c r="F9" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="62"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="M9" s="11" t="s">
@@ -2547,23 +2547,23 @@
       <c r="W9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="X9" s="70">
+      <c r="X9" s="41">
         <v>50</v>
       </c>
     </row>
     <row r="10" spans="2:24" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
       <c r="E10" s="21"/>
-      <c r="F10" s="68" t="s">
+      <c r="F10" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="68"/>
-      <c r="H10" s="68"/>
-      <c r="I10" s="68"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="63"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="M10" s="13" t="s">
@@ -2596,18 +2596,18 @@
       </c>
     </row>
     <row r="11" spans="2:24" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
       <c r="E11" s="21"/>
-      <c r="F11" s="66" t="s">
+      <c r="F11" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="67"/>
-      <c r="H11" s="67"/>
-      <c r="I11" s="67"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="61"/>
+      <c r="I11" s="61"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="M11" s="15" t="s">
@@ -2640,11 +2640,11 @@
       </c>
     </row>
     <row r="12" spans="2:24" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="53"/>
-      <c r="D12" s="53"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
       <c r="M12" s="10" t="s">
         <v>7</v>
       </c>
@@ -2722,15 +2722,15 @@
       <c r="T14" s="23"/>
     </row>
     <row r="15" spans="2:24" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="43"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="45" t="s">
+      <c r="B15" s="64"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="53" t="s">
         <v>92</v>
       </c>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="47"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="67"/>
       <c r="M15" s="11" t="s">
         <v>114</v>
       </c>
@@ -2753,16 +2753,16 @@
         <v>10</v>
       </c>
       <c r="T15" s="23"/>
-      <c r="W15" s="40" t="s">
+      <c r="W15" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="X15" s="40"/>
+      <c r="X15" s="44"/>
     </row>
     <row r="16" spans="2:24" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="51" t="s">
+      <c r="B16" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="52"/>
+      <c r="C16" s="43"/>
       <c r="D16" s="27" t="s">
         <v>19</v>
       </c>
@@ -2809,10 +2809,10 @@
       </c>
     </row>
     <row r="17" spans="2:24" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="51" t="s">
+      <c r="B17" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="52"/>
+      <c r="C17" s="43"/>
       <c r="D17" s="25">
         <v>3</v>
       </c>
@@ -3409,7 +3409,7 @@
       <c r="S38" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="T38" s="69"/>
+      <c r="T38" s="40"/>
     </row>
     <row r="39" spans="13:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M39" s="11" t="s">
@@ -3433,7 +3433,7 @@
       <c r="S39" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="T39" s="32"/>
+      <c r="T39" s="33"/>
     </row>
     <row r="40" spans="13:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M40" s="11" t="s">
@@ -3762,6 +3762,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="W15:X15"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="B9:D9"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="M5:T5"/>
@@ -3776,12 +3782,6 @@
     <mergeCell ref="F11:I11"/>
     <mergeCell ref="F9:I9"/>
     <mergeCell ref="F10:I10"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="W15:X15"/>
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="B9:D9"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>

--- a/BACKLOG PROJETO INDIVIDUAL.xlsx
+++ b/BACKLOG PROJETO INDIVIDUAL.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6718dc6c59bca538/Documentos/Projetos PI/Pequenos Netherland/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Master\OneDrive\Documentos\Projetos PI\Pequenos Netherland\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="489" documentId="13_ncr:1_{2DF89E18-3D0C-4016-8198-AB1920DFF2DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B39DAF64-1584-4596-B778-CE161E7B7762}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6AE2ABE-CB22-4B7C-A070-0C320A5D31B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{BB669365-8FD1-43E2-B311-9ACD144396A7}"/>
   </bookViews>
@@ -952,76 +952,22 @@
     <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1038,6 +984,60 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2010,10 +2010,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
@@ -2333,8 +2329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0A4729E-3F66-4FBE-B00E-8133F9F452C5}">
   <dimension ref="B4:X64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E31" zoomScale="66" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L43" sqref="L43"/>
+    <sheetView tabSelected="1" topLeftCell="D36" zoomScale="66" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K43" sqref="K43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2351,50 +2347,50 @@
   <sheetData>
     <row r="4" spans="2:24" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="56"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="53" t="s">
+      <c r="B5" s="64"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="55"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="63"/>
       <c r="J5" s="7"/>
       <c r="K5" s="3"/>
-      <c r="M5" s="44" t="s">
+      <c r="M5" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="N5" s="44"/>
-      <c r="O5" s="44"/>
-      <c r="P5" s="44"/>
-      <c r="Q5" s="44"/>
-      <c r="R5" s="44"/>
-      <c r="S5" s="44"/>
-      <c r="T5" s="44"/>
-      <c r="W5" s="44" t="s">
+      <c r="N5" s="42"/>
+      <c r="O5" s="42"/>
+      <c r="P5" s="42"/>
+      <c r="Q5" s="42"/>
+      <c r="R5" s="42"/>
+      <c r="S5" s="42"/>
+      <c r="T5" s="42"/>
+      <c r="W5" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="X5" s="62"/>
+      <c r="X5" s="43"/>
     </row>
     <row r="6" spans="2:24" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="59"/>
-      <c r="D6" s="47" t="s">
+      <c r="C6" s="67"/>
+      <c r="D6" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="48"/>
-      <c r="F6" s="49" t="s">
+      <c r="E6" s="57"/>
+      <c r="F6" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="50"/>
-      <c r="H6" s="51" t="s">
+      <c r="G6" s="59"/>
+      <c r="H6" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="52"/>
+      <c r="I6" s="61"/>
       <c r="J6" s="6"/>
       <c r="K6" s="2"/>
       <c r="M6" s="1" t="s">
@@ -2508,18 +2504,18 @@
       </c>
     </row>
     <row r="9" spans="2:24" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="68" t="s">
+      <c r="B9" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="69"/>
-      <c r="D9" s="70"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="52"/>
       <c r="E9" s="21"/>
-      <c r="F9" s="44" t="s">
+      <c r="F9" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="62"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="M9" s="11" t="s">
@@ -2552,18 +2548,18 @@
       </c>
     </row>
     <row r="10" spans="2:24" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
       <c r="E10" s="21"/>
-      <c r="F10" s="63" t="s">
+      <c r="F10" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="63"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="63"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="70"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="M10" s="13" t="s">
@@ -2596,18 +2592,18 @@
       </c>
     </row>
     <row r="11" spans="2:24" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="45" t="s">
+      <c r="B11" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
       <c r="E11" s="21"/>
-      <c r="F11" s="60" t="s">
+      <c r="F11" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="61"/>
-      <c r="H11" s="61"/>
-      <c r="I11" s="61"/>
+      <c r="G11" s="69"/>
+      <c r="H11" s="69"/>
+      <c r="I11" s="69"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="M11" s="15" t="s">
@@ -2640,11 +2636,11 @@
       </c>
     </row>
     <row r="12" spans="2:24" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="45" t="s">
+      <c r="B12" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="55"/>
       <c r="M12" s="10" t="s">
         <v>7</v>
       </c>
@@ -2722,15 +2718,15 @@
       <c r="T14" s="23"/>
     </row>
     <row r="15" spans="2:24" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="64"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="53" t="s">
+      <c r="B15" s="45"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="47" t="s">
         <v>92</v>
       </c>
-      <c r="E15" s="66"/>
-      <c r="F15" s="66"/>
-      <c r="G15" s="66"/>
-      <c r="H15" s="67"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="49"/>
       <c r="M15" s="11" t="s">
         <v>114</v>
       </c>
@@ -2753,16 +2749,16 @@
         <v>10</v>
       </c>
       <c r="T15" s="23"/>
-      <c r="W15" s="44" t="s">
+      <c r="W15" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="X15" s="44"/>
+      <c r="X15" s="42"/>
     </row>
     <row r="16" spans="2:24" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="42" t="s">
+      <c r="B16" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="43"/>
+      <c r="C16" s="54"/>
       <c r="D16" s="27" t="s">
         <v>19</v>
       </c>
@@ -2809,10 +2805,10 @@
       </c>
     </row>
     <row r="17" spans="2:24" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="42" t="s">
+      <c r="B17" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="43"/>
+      <c r="C17" s="54"/>
       <c r="D17" s="25">
         <v>3</v>
       </c>
@@ -3267,7 +3263,7 @@
       </c>
       <c r="T32" s="23"/>
     </row>
-    <row r="33" spans="13:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="11:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M33" s="11" t="s">
         <v>46</v>
       </c>
@@ -3291,7 +3287,7 @@
       </c>
       <c r="T33" s="23"/>
     </row>
-    <row r="34" spans="13:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="11:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M34" s="10" t="s">
         <v>59</v>
       </c>
@@ -3313,9 +3309,9 @@
       <c r="S34" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="T34" s="32"/>
-    </row>
-    <row r="35" spans="13:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T34" s="33"/>
+    </row>
+    <row r="35" spans="11:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M35" s="13" t="s">
         <v>88</v>
       </c>
@@ -3339,7 +3335,7 @@
       </c>
       <c r="T35" s="33"/>
     </row>
-    <row r="36" spans="13:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="11:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M36" s="11" t="s">
         <v>61</v>
       </c>
@@ -3363,7 +3359,7 @@
       </c>
       <c r="T36" s="39"/>
     </row>
-    <row r="37" spans="13:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="11:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M37" s="11" t="s">
         <v>62</v>
       </c>
@@ -3387,7 +3383,7 @@
       </c>
       <c r="T37" s="33"/>
     </row>
-    <row r="38" spans="13:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="11:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M38" s="11" t="s">
         <v>116</v>
       </c>
@@ -3411,7 +3407,7 @@
       </c>
       <c r="T38" s="40"/>
     </row>
-    <row r="39" spans="13:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="11:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M39" s="11" t="s">
         <v>63</v>
       </c>
@@ -3435,7 +3431,7 @@
       </c>
       <c r="T39" s="33"/>
     </row>
-    <row r="40" spans="13:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="11:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M40" s="11" t="s">
         <v>64</v>
       </c>
@@ -3457,9 +3453,9 @@
       <c r="S40" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="T40" s="23"/>
-    </row>
-    <row r="41" spans="13:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T40" s="33"/>
+    </row>
+    <row r="41" spans="11:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M41" s="11" t="s">
         <v>65</v>
       </c>
@@ -3481,9 +3477,9 @@
       <c r="S41" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="T41" s="23"/>
-    </row>
-    <row r="42" spans="13:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T41" s="33"/>
+    </row>
+    <row r="42" spans="11:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M42" s="11" t="s">
         <v>117</v>
       </c>
@@ -3505,9 +3501,10 @@
       <c r="S42" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="T42" s="23"/>
-    </row>
-    <row r="43" spans="13:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T42" s="33"/>
+    </row>
+    <row r="43" spans="11:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K43" s="14"/>
       <c r="M43" s="11" t="s">
         <v>90</v>
       </c>
@@ -3529,9 +3526,9 @@
       <c r="S43" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="T43" s="23"/>
-    </row>
-    <row r="44" spans="13:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T43" s="33"/>
+    </row>
+    <row r="44" spans="11:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M44" s="10" t="s">
         <v>79</v>
       </c>
@@ -3555,7 +3552,7 @@
       </c>
       <c r="T44" s="23"/>
     </row>
-    <row r="45" spans="13:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="11:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M45" s="10" t="s">
         <v>81</v>
       </c>
@@ -3579,7 +3576,7 @@
       </c>
       <c r="T45" s="23"/>
     </row>
-    <row r="46" spans="13:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="11:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M46" s="15" t="s">
         <v>85</v>
       </c>
@@ -3603,7 +3600,7 @@
       </c>
       <c r="T46" s="23"/>
     </row>
-    <row r="47" spans="13:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="11:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M47" s="15" t="s">
         <v>100</v>
       </c>
@@ -3627,7 +3624,7 @@
       </c>
       <c r="T47" s="23"/>
     </row>
-    <row r="48" spans="13:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="11:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M48" s="31"/>
       <c r="N48" s="31"/>
       <c r="O48" s="31"/>
@@ -3762,12 +3759,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="W15:X15"/>
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="B9:D9"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="M5:T5"/>
@@ -3782,6 +3773,12 @@
     <mergeCell ref="F11:I11"/>
     <mergeCell ref="F9:I9"/>
     <mergeCell ref="F10:I10"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="W15:X15"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="B9:D9"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>

--- a/BACKLOG PROJETO INDIVIDUAL.xlsx
+++ b/BACKLOG PROJETO INDIVIDUAL.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Master\OneDrive\Documentos\Projetos PI\Pequenos Netherland\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6718dc6c59bca538/Documentos/Projetos PI/Pequenos Netherland/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6AE2ABE-CB22-4B7C-A070-0C320A5D31B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{F6AE2ABE-CB22-4B7C-A070-0C320A5D31B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A895CFEF-3470-40BA-8898-954F36D6D5BB}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{BB669365-8FD1-43E2-B311-9ACD144396A7}"/>
   </bookViews>
@@ -2010,6 +2010,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
@@ -2329,8 +2333,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0A4729E-3F66-4FBE-B00E-8133F9F452C5}">
   <dimension ref="B4:X64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D36" zoomScale="66" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K43" sqref="K43"/>
+    <sheetView tabSelected="1" topLeftCell="C5" zoomScale="66" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2662,7 +2666,7 @@
       <c r="S12" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="T12" s="23"/>
+      <c r="T12" s="32"/>
       <c r="W12" s="38"/>
       <c r="X12" s="38"/>
     </row>
@@ -2689,7 +2693,7 @@
       <c r="S13" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="T13" s="23"/>
+      <c r="T13" s="32"/>
       <c r="W13" s="38"/>
       <c r="X13" s="38"/>
     </row>
@@ -2715,7 +2719,7 @@
       <c r="S14" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="T14" s="23"/>
+      <c r="T14" s="32"/>
     </row>
     <row r="15" spans="2:24" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="45"/>
@@ -2748,7 +2752,7 @@
       <c r="S15" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="T15" s="23"/>
+      <c r="T15" s="32"/>
       <c r="W15" s="42" t="s">
         <v>95</v>
       </c>
@@ -2796,7 +2800,7 @@
       <c r="S16" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="T16" s="23"/>
+      <c r="T16" s="32"/>
       <c r="W16" s="8" t="s">
         <v>8</v>
       </c>
@@ -2845,7 +2849,7 @@
       <c r="S17" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="T17" s="23"/>
+      <c r="T17" s="32"/>
       <c r="U17" s="14"/>
       <c r="W17" s="5" t="s">
         <v>9</v>
@@ -2880,7 +2884,7 @@
       <c r="S18" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="T18" s="23"/>
+      <c r="T18" s="32"/>
       <c r="U18" s="14"/>
       <c r="W18" s="5" t="s">
         <v>10</v>
@@ -2915,7 +2919,7 @@
       <c r="S19" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="T19" s="23"/>
+      <c r="T19" s="32"/>
       <c r="U19" s="14"/>
       <c r="W19" s="5" t="s">
         <v>11</v>
@@ -2950,7 +2954,7 @@
       <c r="S20" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="T20" s="23"/>
+      <c r="T20" s="32"/>
       <c r="W20" s="30" t="s">
         <v>12</v>
       </c>
@@ -2984,7 +2988,7 @@
       <c r="S21" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="T21" s="23"/>
+      <c r="T21" s="32"/>
       <c r="W21" s="5" t="s">
         <v>13</v>
       </c>
@@ -3012,7 +3016,7 @@
       <c r="S22" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="T22" s="23"/>
+      <c r="T22" s="32"/>
       <c r="W22" s="4" t="s">
         <v>14</v>
       </c>
@@ -3040,7 +3044,7 @@
       <c r="S23" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="T23" s="23"/>
+      <c r="T23" s="32"/>
     </row>
     <row r="24" spans="2:24" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M24" s="11" t="s">
@@ -3064,7 +3068,7 @@
       <c r="S24" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="T24" s="23"/>
+      <c r="T24" s="32"/>
       <c r="W24" s="9"/>
       <c r="X24" s="9"/>
     </row>
@@ -3213,7 +3217,7 @@
       <c r="S30" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="T30" s="23"/>
+      <c r="T30" s="32"/>
     </row>
     <row r="31" spans="2:24" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M31" s="11" t="s">
@@ -3237,7 +3241,7 @@
       <c r="S31" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="T31" s="23"/>
+      <c r="T31" s="32"/>
     </row>
     <row r="32" spans="2:24" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M32" s="13" t="s">
@@ -3261,7 +3265,7 @@
       <c r="S32" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="T32" s="23"/>
+      <c r="T32" s="32"/>
     </row>
     <row r="33" spans="11:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M33" s="11" t="s">
@@ -3285,7 +3289,7 @@
       <c r="S33" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="T33" s="23"/>
+      <c r="T33" s="32"/>
     </row>
     <row r="34" spans="11:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M34" s="10" t="s">

--- a/BACKLOG PROJETO INDIVIDUAL.xlsx
+++ b/BACKLOG PROJETO INDIVIDUAL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6718dc6c59bca538/Documentos/Projetos PI/Pequenos Netherland/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{F6AE2ABE-CB22-4B7C-A070-0C320A5D31B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A895CFEF-3470-40BA-8898-954F36D6D5BB}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{F6AE2ABE-CB22-4B7C-A070-0C320A5D31B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DFA60108-6B5A-4BED-9F49-30E599D28067}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{BB669365-8FD1-43E2-B311-9ACD144396A7}"/>
   </bookViews>
@@ -952,22 +952,76 @@
     <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -984,60 +1038,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2010,10 +2010,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
@@ -2333,8 +2329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0A4729E-3F66-4FBE-B00E-8133F9F452C5}">
   <dimension ref="B4:X64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C5" zoomScale="66" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" topLeftCell="L5" zoomScale="66" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="T33" sqref="T33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2351,50 +2347,50 @@
   <sheetData>
     <row r="4" spans="2:24" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="64"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="47" t="s">
+      <c r="B5" s="56"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="63"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="55"/>
       <c r="J5" s="7"/>
       <c r="K5" s="3"/>
-      <c r="M5" s="42" t="s">
+      <c r="M5" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="N5" s="42"/>
-      <c r="O5" s="42"/>
-      <c r="P5" s="42"/>
-      <c r="Q5" s="42"/>
-      <c r="R5" s="42"/>
-      <c r="S5" s="42"/>
-      <c r="T5" s="42"/>
-      <c r="W5" s="42" t="s">
+      <c r="N5" s="44"/>
+      <c r="O5" s="44"/>
+      <c r="P5" s="44"/>
+      <c r="Q5" s="44"/>
+      <c r="R5" s="44"/>
+      <c r="S5" s="44"/>
+      <c r="T5" s="44"/>
+      <c r="W5" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="X5" s="43"/>
+      <c r="X5" s="62"/>
     </row>
     <row r="6" spans="2:24" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="67"/>
-      <c r="D6" s="56" t="s">
+      <c r="C6" s="59"/>
+      <c r="D6" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="57"/>
-      <c r="F6" s="58" t="s">
+      <c r="E6" s="48"/>
+      <c r="F6" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="59"/>
-      <c r="H6" s="60" t="s">
+      <c r="G6" s="50"/>
+      <c r="H6" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="61"/>
+      <c r="I6" s="52"/>
       <c r="J6" s="6"/>
       <c r="K6" s="2"/>
       <c r="M6" s="1" t="s">
@@ -2508,18 +2504,18 @@
       </c>
     </row>
     <row r="9" spans="2:24" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="52"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="70"/>
       <c r="E9" s="21"/>
-      <c r="F9" s="42" t="s">
+      <c r="F9" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="62"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="M9" s="11" t="s">
@@ -2552,18 +2548,18 @@
       </c>
     </row>
     <row r="10" spans="2:24" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="55"/>
-      <c r="D10" s="55"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
       <c r="E10" s="21"/>
-      <c r="F10" s="70" t="s">
+      <c r="F10" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="70"/>
-      <c r="H10" s="70"/>
-      <c r="I10" s="70"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="63"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="M10" s="13" t="s">
@@ -2596,18 +2592,18 @@
       </c>
     </row>
     <row r="11" spans="2:24" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="44" t="s">
+      <c r="B11" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
       <c r="E11" s="21"/>
-      <c r="F11" s="68" t="s">
+      <c r="F11" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="69"/>
-      <c r="H11" s="69"/>
-      <c r="I11" s="69"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="61"/>
+      <c r="I11" s="61"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="M11" s="15" t="s">
@@ -2640,11 +2636,11 @@
       </c>
     </row>
     <row r="12" spans="2:24" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="44" t="s">
+      <c r="B12" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="55"/>
-      <c r="D12" s="55"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
       <c r="M12" s="10" t="s">
         <v>7</v>
       </c>
@@ -2722,15 +2718,15 @@
       <c r="T14" s="32"/>
     </row>
     <row r="15" spans="2:24" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="45"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="47" t="s">
+      <c r="B15" s="64"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="53" t="s">
         <v>92</v>
       </c>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="49"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="67"/>
       <c r="M15" s="11" t="s">
         <v>114</v>
       </c>
@@ -2753,16 +2749,16 @@
         <v>10</v>
       </c>
       <c r="T15" s="32"/>
-      <c r="W15" s="42" t="s">
+      <c r="W15" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="X15" s="42"/>
+      <c r="X15" s="44"/>
     </row>
     <row r="16" spans="2:24" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="53" t="s">
+      <c r="B16" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="54"/>
+      <c r="C16" s="43"/>
       <c r="D16" s="27" t="s">
         <v>19</v>
       </c>
@@ -2809,10 +2805,10 @@
       </c>
     </row>
     <row r="17" spans="2:24" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="53" t="s">
+      <c r="B17" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="54"/>
+      <c r="C17" s="43"/>
       <c r="D17" s="25">
         <v>3</v>
       </c>
@@ -3217,7 +3213,7 @@
       <c r="S30" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="T30" s="32"/>
+      <c r="T30" s="33"/>
     </row>
     <row r="31" spans="2:24" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M31" s="11" t="s">
@@ -3241,7 +3237,7 @@
       <c r="S31" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="T31" s="32"/>
+      <c r="T31" s="33"/>
     </row>
     <row r="32" spans="2:24" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M32" s="13" t="s">
@@ -3265,7 +3261,7 @@
       <c r="S32" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="T32" s="32"/>
+      <c r="T32" s="33"/>
     </row>
     <row r="33" spans="11:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M33" s="11" t="s">
@@ -3289,7 +3285,7 @@
       <c r="S33" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="T33" s="32"/>
+      <c r="T33" s="33"/>
     </row>
     <row r="34" spans="11:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M34" s="10" t="s">
@@ -3763,6 +3759,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="W15:X15"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="B9:D9"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="M5:T5"/>
@@ -3777,12 +3779,6 @@
     <mergeCell ref="F11:I11"/>
     <mergeCell ref="F9:I9"/>
     <mergeCell ref="F10:I10"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="W15:X15"/>
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="B9:D9"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
